--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rough\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FB77B6-16DA-4EB9-8612-578BD2513B74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765DAFCB-ED2A-4EEB-9CC2-C9DE93F29332}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
   <si>
     <t>Paper id</t>
   </si>
@@ -756,6 +756,9 @@
   </si>
   <si>
     <t>obj049</t>
+  </si>
+  <si>
+    <t>Importance</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -817,7 +820,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -826,6 +828,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,552 +1223,587 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:H55"/>
+  <dimension ref="B3:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="6"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" customWidth="1"/>
-    <col min="8" max="8" width="86.109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="8.88671875" style="11"/>
+    <col min="5" max="5" width="12.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="6.5546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="86.109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="I3" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="11">
         <v>407</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="11">
         <v>829</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="11">
         <v>2951</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="11">
         <v>104</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="11">
         <v>308</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="11">
         <v>490</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="11">
         <v>353</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="11">
         <v>11186</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="11">
         <v>830</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="11">
         <v>908</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="11">
         <v>286</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="11">
         <v>161</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="11">
         <v>142</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="I16" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="11">
         <v>414</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="I17" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="11">
         <v>341</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="11">
         <v>312</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="I19" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="11">
         <v>5224</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="11">
         <v>1793</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="11">
         <v>1945</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="11">
         <v>403</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="11">
         <v>1791</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="I24" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="11">
         <v>217</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="I25" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="11">
         <v>1297</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="I26" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="11">
         <v>11885</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="I27" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="11">
         <v>20</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="11">
         <v>5438</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="I29" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="11">
         <v>333</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="11">
         <v>1650</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="11">
         <v>7971</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="11">
         <v>1061</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="B34" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="11">
         <v>4528</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+      <c r="B35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="11">
         <v>583</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="B36" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="11">
         <v>7</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="B37" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="11">
         <v>351</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="B38" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="11">
         <v>16170</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="B39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="11">
         <v>43</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="B40" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="11">
         <v>169</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+      <c r="B41" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="11">
         <v>347</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="11">
         <v>52725</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="11">
         <v>306</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+      <c r="B44" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="11">
         <v>361</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+      <c r="B45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="11">
         <v>28873</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+      <c r="B46" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="11">
         <v>318</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="B47" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="11">
         <v>168</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+      <c r="B48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="11">
         <v>4798</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+      <c r="B49" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="11">
         <v>378</v>
       </c>
       <c r="H49" s="5" t="s">
@@ -1765,10 +1811,10 @@
       </c>
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+      <c r="B50" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="11">
         <v>856</v>
       </c>
       <c r="H50" s="5" t="s">
@@ -1776,10 +1822,10 @@
       </c>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+      <c r="B51" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="11">
         <v>4028</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -1787,10 +1833,10 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+      <c r="B52" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="11">
         <v>14004</v>
       </c>
       <c r="H52" s="5" t="s">
@@ -1798,10 +1844,10 @@
       </c>
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+      <c r="B53" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="11">
         <v>176</v>
       </c>
       <c r="H53" s="5" t="s">
@@ -1809,10 +1855,10 @@
       </c>
     </row>
     <row r="54" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H54" s="10"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H55" s="9"/>
+      <c r="H55" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -5,22 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rough\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765DAFCB-ED2A-4EEB-9CC2-C9DE93F29332}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EDADFC-2AC0-46DD-863F-4C13F32E47FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="31125" yWindow="2115" windowWidth="16365" windowHeight="8595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="4" r:id="rId1"/>
     <sheet name="System" sheetId="3" r:id="rId2"/>
     <sheet name="DL_later" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1227,7 +1233,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EDADFC-2AC0-46DD-863F-4C13F32E47FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5826118F-9E44-41F3-A150-F92C6F2D62CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="31125" yWindow="2115" windowWidth="16365" windowHeight="8595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="4" r:id="rId1"/>
@@ -1232,8 +1232,8 @@
   <dimension ref="B3:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5826118F-9E44-41F3-A150-F92C6F2D62CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4505EB21-2945-4A35-ABE1-E4CEEC311B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
   <si>
     <t>Paper id</t>
   </si>
@@ -281,15 +281,6 @@
 }</t>
   </si>
   <si>
-    <t>@inproceedings{li2016deep,
-  title={Deep contrast learning for salient object detection},
-  author={Li, Guanbin and Yu, Yizhou},
-  booktitle={Proceedings of the IEEE Conference on Computer Vision and Pattern Recognition},
-  pages={478--487},
-  year={2016}
-}</t>
-  </si>
-  <si>
     <t>@misc{szegedy2016object,
   title={Object detection using deep neural networks},
   author={Szegedy, Christian and Erhan, Dumitru and Toshev, Alexander Toshkov},
@@ -457,18 +448,6 @@
 }</t>
   </si>
   <si>
-    <t>@article{wu1995live,H5
-  title={Live cell image segmentation},
-  author={Wu, Kenong and Gauthier, David and Levine, Martin D},
-  journal={IEEE Transactions on biomedical engineering},
-  volume={42},
-  number={1},
-  pages={1--12},
-  year={1995},
-  publisher={IEEE}
-}</t>
-  </si>
-  <si>
     <t>@article{yang2002detecting,
   title={Detecting faces in images: A survey},
   author={Yang, Ming-Hsuan and Kriegman, David J and Ahuja, Narendra},
@@ -765,6 +744,30 @@
   </si>
   <si>
     <t>Importance</t>
+  </si>
+  <si>
+    <t>@inproceedings{li2016deep,G40
+  title={Deep contrast learning for salient object detection},
+  author={Li, Guanbin and Yu, Yizhou},
+  booktitle={Proceedings of the IEEE Conference on Computer Vision and Pattern Recognition},
+  pages={478--487},
+  year={2016}
+}</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>3*</t>
+  </si>
+  <si>
+    <t>@article{zhao2019object,
+  title={Object detection with deep learning: A review},
+  author={Zhao, Zhong-Qiu and Zheng, Peng and Xu, Shou-tao and Wu, Xindong},
+  journal={IEEE transactions on neural networks and learning systems},
+  year={2019},
+  publisher={IEEE}
+}</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1235,8 @@
   <dimension ref="B3:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1247,7 @@
     <col min="5" max="5" width="12.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="10"/>
     <col min="7" max="7" width="6.5546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="86.109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="74.33203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1271,18 +1274,18 @@
         <v>6</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="11">
         <v>407</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="10">
         <v>1</v>
@@ -1296,18 +1299,21 @@
         <v>829</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="11">
         <v>2951</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1323,13 +1329,13 @@
     </row>
     <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8" s="11">
         <v>308</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1348,13 +1354,13 @@
     </row>
     <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="11">
         <v>353</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1365,18 +1371,21 @@
         <v>11186</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" s="11">
         <v>830</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1392,13 +1401,13 @@
     </row>
     <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="11">
         <v>286</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1414,16 +1423,16 @@
     </row>
     <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="11">
         <v>142</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="10">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1445,13 +1454,13 @@
     </row>
     <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="11">
         <v>341</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1467,19 +1476,19 @@
       <c r="H19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="10">
-        <v>5</v>
+      <c r="I19" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" s="11">
         <v>5224</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1495,13 +1504,16 @@
     </row>
     <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D22" s="11">
         <v>1945</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1514,16 +1526,19 @@
       <c r="H23" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="I23" s="10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24" s="11">
         <v>1791</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I24" s="10">
         <v>6</v>
@@ -1539,19 +1554,19 @@
       <c r="H25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="10">
-        <v>7</v>
+      <c r="I25" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D26" s="11">
         <v>1297</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I26" s="10">
         <v>8</v>
@@ -1573,13 +1588,16 @@
     </row>
     <row r="28" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D28" s="11">
         <v>20</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1598,13 +1616,13 @@
     </row>
     <row r="30" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="11">
         <v>333</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1620,16 +1638,19 @@
     </row>
     <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="11">
         <v>7971</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
@@ -1639,19 +1660,22 @@
       <c r="H33" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="11">
         <v>4528</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>38</v>
       </c>
@@ -1662,18 +1686,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D36" s="11">
         <v>7</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>39</v>
       </c>
@@ -1681,21 +1705,21 @@
         <v>351</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D38" s="11">
         <v>16170</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>40</v>
       </c>
@@ -1703,21 +1727,21 @@
         <v>43</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D40" s="11">
         <v>169</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>41</v>
       </c>
@@ -1725,21 +1749,21 @@
         <v>347</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D42" s="11">
         <v>52725</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>42</v>
       </c>
@@ -1747,21 +1771,21 @@
         <v>306</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D44" s="11">
         <v>361</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>43</v>
       </c>
@@ -1769,21 +1793,21 @@
         <v>28873</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D46" s="11">
         <v>318</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>44</v>
       </c>
@@ -1791,18 +1815,18 @@
         <v>168</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D48" s="11">
         <v>4798</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1813,18 +1837,18 @@
         <v>378</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D50" s="11">
         <v>856</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1835,18 +1859,18 @@
         <v>4028</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D52" s="11">
         <v>14004</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1857,7 +1881,7 @@
         <v>176</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1923,7 +1947,7 @@
         <v>7285</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1931,7 +1955,7 @@
         <v>1554</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4505EB21-2945-4A35-ABE1-E4CEEC311B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC99FFF-8D74-468A-92E8-BCB1B873B4A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
   <si>
     <t>Paper id</t>
   </si>
@@ -592,17 +592,6 @@
 }</t>
   </si>
   <si>
-    <t>@article{viola2001robust,
-  title={Robust real-time object detection},H46
-  author={Viola, Paul and Jones, Michael and others},
-  journal={International journal of computer vision},
-  volume={4},
-  number={34-47},
-  pages={4},
-  year={2001}
-}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> @article{viola2004robust,
   title={Robust real-time face detection},
   author={Viola, Paul and Jones, Michael J},
@@ -767,6 +756,23 @@
   journal={IEEE transactions on neural networks and learning systems},
   year={2019},
   publisher={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>@article{viola2001robust,
+  title={Robust real-time object detection},
+  author={Viola, Paul and Jones, Michael and others},
+  journal={International journal of computer vision},
+  volume={4},
+  number={34-47},
+  pages={4},
+  year={2001}
 }</t>
   </si>
 </sst>
@@ -816,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -845,6 +851,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,15 +1241,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:I55"/>
+  <dimension ref="A3:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" style="10"/>
     <col min="2" max="2" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="10"/>
     <col min="4" max="4" width="8.88671875" style="11"/>
@@ -1251,7 +1261,7 @@
     <col min="9" max="9" width="16.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1274,10 +1284,13 @@
         <v>6</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="10" t="s">
         <v>58</v>
       </c>
@@ -1291,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1302,9 +1315,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="11">
         <v>2951</v>
@@ -1313,10 +1326,10 @@
         <v>59</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1327,18 +1340,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="11">
         <v>308</v>
       </c>
+      <c r="G8" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="H8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
@@ -1352,9 +1374,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="11">
         <v>353</v>
@@ -1363,7 +1385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1373,10 +1395,13 @@
       <c r="H11" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="11">
         <v>830</v>
@@ -1385,10 +1410,10 @@
         <v>62</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -1399,9 +1424,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="11">
         <v>286</v>
@@ -1409,8 +1434,11 @@
       <c r="H14" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -1421,9 +1449,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="11">
         <v>142</v>
@@ -1432,10 +1463,13 @@
         <v>64</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1452,9 +1486,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="11">
         <v>341</v>
@@ -1463,7 +1497,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
@@ -1477,12 +1511,12 @@
         <v>25</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="11">
         <v>5224</v>
@@ -1491,7 +1525,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
@@ -1502,9 +1536,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="11">
         <v>1945</v>
@@ -1513,10 +1547,10 @@
         <v>67</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
@@ -1527,24 +1561,24 @@
         <v>27</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="11">
+        <v>94</v>
+      </c>
+      <c r="D24" s="13">
         <v>1791</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>68</v>
       </c>
       <c r="I24" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
@@ -1555,12 +1589,12 @@
         <v>33</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="11">
         <v>1297</v>
@@ -1568,15 +1602,12 @@
       <c r="H26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="13">
         <v>11885</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -1586,9 +1617,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="11">
         <v>20</v>
@@ -1597,10 +1628,10 @@
         <v>70</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>30</v>
       </c>
@@ -1611,12 +1642,12 @@
         <v>35</v>
       </c>
       <c r="I29" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="11">
         <v>333</v>
@@ -1624,8 +1655,11 @@
       <c r="H30" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
@@ -1635,10 +1669,13 @@
       <c r="H31" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="11">
         <v>7971</v>
@@ -1647,7 +1684,7 @@
         <v>72</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1661,18 +1698,24 @@
         <v>37</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="11">
         <v>4528</v>
       </c>
+      <c r="G34" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="H34" s="7" t="s">
         <v>73</v>
+      </c>
+      <c r="I34" s="10">
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1688,10 +1731,13 @@
     </row>
     <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="11">
         <v>7</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>74</v>
@@ -1705,12 +1751,12 @@
         <v>351</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="11">
         <v>16170</v>
@@ -1729,16 +1775,22 @@
       <c r="H39" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="I39" s="10">
+        <v>14</v>
+      </c>
     </row>
     <row r="40" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="11">
         <v>169</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>76</v>
+      </c>
+      <c r="I40" s="10">
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1754,7 +1806,7 @@
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="11">
         <v>52725</v>
@@ -1776,7 +1828,7 @@
     </row>
     <row r="44" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" s="11">
         <v>361</v>
@@ -1798,13 +1850,13 @@
     </row>
     <row r="46" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D46" s="11">
         <v>318</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1820,13 +1872,13 @@
     </row>
     <row r="48" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="11">
         <v>4798</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1842,13 +1894,13 @@
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="11">
         <v>856</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1859,18 +1911,18 @@
         <v>4028</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D52" s="11">
         <v>14004</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1947,7 +1999,7 @@
         <v>7285</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1955,7 +2007,7 @@
         <v>1554</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC99FFF-8D74-468A-92E8-BCB1B873B4A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861B8A3D-D6F8-41B0-89CB-74EAAAA95CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="118">
   <si>
     <t>Paper id</t>
   </si>
@@ -774,6 +774,9 @@
   pages={4},
   year={2001}
 }</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -1244,8 +1247,8 @@
   <dimension ref="A3:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,6 +1265,9 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861B8A3D-D6F8-41B0-89CB-74EAAAA95CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5963817B-714E-49B6-8152-A763620EE84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1247,8 +1247,8 @@
   <dimension ref="A3:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1734,6 +1734,9 @@
       <c r="H35" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="I35" s="10">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
@@ -1842,6 +1845,9 @@
       <c r="H44" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="I44" s="10">
+        <v>17</v>
+      </c>
     </row>
     <row r="45" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
@@ -1875,6 +1881,9 @@
       <c r="H47" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="I47" s="10">
+        <v>18</v>
+      </c>
     </row>
     <row r="48" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
@@ -1887,7 +1896,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>45</v>
       </c>
@@ -1897,8 +1906,11 @@
       <c r="H49" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I49" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>107</v>
       </c>
@@ -1909,7 +1921,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>46</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>108</v>
       </c>
@@ -1931,7 +1943,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>47</v>
       </c>
@@ -1941,11 +1953,14 @@
       <c r="H53" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I53" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H55" s="8"/>
     </row>
   </sheetData>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5963817B-714E-49B6-8152-A763620EE84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815F384F-AE90-41FF-B14C-4B545B8020D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1247,7 +1247,7 @@
   <dimension ref="A3:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815F384F-AE90-41FF-B14C-4B545B8020D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0900CC0-98F6-491E-9FE0-F58167FC57B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="4" r:id="rId1"/>
     <sheet name="System" sheetId="3" r:id="rId2"/>
-    <sheet name="DL_later" sheetId="10" r:id="rId3"/>
+    <sheet name="review_papers" sheetId="12" r:id="rId3"/>
+    <sheet name="DL_later" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
   <si>
     <t>Paper id</t>
   </si>
@@ -777,6 +778,28 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Biblio</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>Downloaded</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Src type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper
+type </t>
   </si>
 </sst>
 </file>
@@ -825,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -856,6 +879,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,7 +1167,7 @@
   <dimension ref="B3:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1246,9 +1272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1272,22 +1298,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
+        <v>124</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>109</v>
@@ -1303,6 +1329,9 @@
       <c r="D4" s="11">
         <v>407</v>
       </c>
+      <c r="E4" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>57</v>
       </c>
@@ -1317,6 +1346,9 @@
       <c r="D5" s="11">
         <v>829</v>
       </c>
+      <c r="E5" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H5" s="7" t="s">
         <v>56</v>
       </c>
@@ -1328,6 +1360,9 @@
       <c r="D6" s="11">
         <v>2951</v>
       </c>
+      <c r="E6" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H6" s="7" t="s">
         <v>59</v>
       </c>
@@ -1342,6 +1377,9 @@
       <c r="D7" s="11">
         <v>104</v>
       </c>
+      <c r="E7" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1353,6 +1391,9 @@
       <c r="D8" s="11">
         <v>308</v>
       </c>
+      <c r="E8" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="G8" s="10" t="s">
         <v>115</v>
       </c>
@@ -1373,6 +1414,9 @@
       <c r="D9" s="11">
         <v>490</v>
       </c>
+      <c r="E9" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1387,6 +1431,9 @@
       <c r="D10" s="11">
         <v>353</v>
       </c>
+      <c r="E10" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H10" s="7" t="s">
         <v>60</v>
       </c>
@@ -1398,6 +1445,9 @@
       <c r="D11" s="11">
         <v>11186</v>
       </c>
+      <c r="E11" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H11" s="7" t="s">
         <v>61</v>
       </c>
@@ -1412,6 +1462,9 @@
       <c r="D12" s="11">
         <v>830</v>
       </c>
+      <c r="E12" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H12" s="7" t="s">
         <v>62</v>
       </c>
@@ -1426,6 +1479,9 @@
       <c r="D13" s="11">
         <v>908</v>
       </c>
+      <c r="E13" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1437,6 +1493,9 @@
       <c r="D14" s="11">
         <v>286</v>
       </c>
+      <c r="E14" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H14" s="7" t="s">
         <v>63</v>
       </c>
@@ -1451,6 +1510,9 @@
       <c r="D15" s="11">
         <v>161</v>
       </c>
+      <c r="E15" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H15" s="7" t="s">
         <v>23</v>
       </c>
@@ -1465,6 +1527,9 @@
       <c r="D16" s="11">
         <v>142</v>
       </c>
+      <c r="E16" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H16" s="7" t="s">
         <v>64</v>
       </c>
@@ -1482,6 +1547,9 @@
       <c r="D17" s="11">
         <v>414</v>
       </c>
+      <c r="E17" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="F17" s="10" t="s">
         <v>8</v>
       </c>
@@ -1499,6 +1567,9 @@
       <c r="D18" s="11">
         <v>341</v>
       </c>
+      <c r="E18" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H18" s="7" t="s">
         <v>65</v>
       </c>
@@ -1510,6 +1581,9 @@
       <c r="D19" s="11">
         <v>312</v>
       </c>
+      <c r="E19" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="F19" s="10" t="s">
         <v>8</v>
       </c>
@@ -1527,6 +1601,9 @@
       <c r="D20" s="11">
         <v>5224</v>
       </c>
+      <c r="E20" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H20" s="7" t="s">
         <v>66</v>
       </c>
@@ -1538,6 +1615,9 @@
       <c r="D21" s="11">
         <v>1793</v>
       </c>
+      <c r="E21" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1549,6 +1629,9 @@
       <c r="D22" s="11">
         <v>1945</v>
       </c>
+      <c r="E22" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H22" s="7" t="s">
         <v>67</v>
       </c>
@@ -1563,6 +1646,9 @@
       <c r="D23" s="11">
         <v>403</v>
       </c>
+      <c r="E23" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1577,6 +1663,9 @@
       <c r="D24" s="13">
         <v>1791</v>
       </c>
+      <c r="E24" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H24" s="7" t="s">
         <v>68</v>
       </c>
@@ -1591,6 +1680,9 @@
       <c r="D25" s="11">
         <v>217</v>
       </c>
+      <c r="E25" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H25" s="7" t="s">
         <v>33</v>
       </c>
@@ -1605,6 +1697,9 @@
       <c r="D26" s="11">
         <v>1297</v>
       </c>
+      <c r="E26" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H26" s="7" t="s">
         <v>69</v>
       </c>
@@ -1616,6 +1711,9 @@
       <c r="D27" s="13">
         <v>11885</v>
       </c>
+      <c r="E27" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H27" s="7" t="s">
         <v>34</v>
       </c>
@@ -1630,6 +1728,9 @@
       <c r="D28" s="11">
         <v>20</v>
       </c>
+      <c r="E28" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H28" s="7" t="s">
         <v>70</v>
       </c>
@@ -1644,6 +1745,9 @@
       <c r="D29" s="11">
         <v>5438</v>
       </c>
+      <c r="E29" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H29" s="7" t="s">
         <v>35</v>
       </c>
@@ -1658,6 +1762,9 @@
       <c r="D30" s="11">
         <v>333</v>
       </c>
+      <c r="E30" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H30" s="7" t="s">
         <v>71</v>
       </c>
@@ -1672,6 +1779,9 @@
       <c r="D31" s="11">
         <v>1650</v>
       </c>
+      <c r="E31" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H31" s="7" t="s">
         <v>36</v>
       </c>
@@ -1686,6 +1796,9 @@
       <c r="D32" s="11">
         <v>7971</v>
       </c>
+      <c r="E32" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H32" s="7" t="s">
         <v>72</v>
       </c>
@@ -1700,6 +1813,9 @@
       <c r="D33" s="11">
         <v>1061</v>
       </c>
+      <c r="E33" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H33" s="7" t="s">
         <v>37</v>
       </c>
@@ -1714,6 +1830,9 @@
       <c r="D34" s="11">
         <v>4528</v>
       </c>
+      <c r="E34" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="G34" s="10" t="s">
         <v>115</v>
       </c>
@@ -1731,6 +1850,9 @@
       <c r="D35" s="11">
         <v>583</v>
       </c>
+      <c r="E35" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H35" s="7" t="s">
         <v>48</v>
       </c>
@@ -1745,6 +1867,9 @@
       <c r="D36" s="11">
         <v>7</v>
       </c>
+      <c r="E36" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="G36" s="10" t="s">
         <v>115</v>
       </c>
@@ -1759,6 +1884,9 @@
       <c r="D37" s="11">
         <v>351</v>
       </c>
+      <c r="E37" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H37" s="7" t="s">
         <v>110</v>
       </c>
@@ -1770,6 +1898,9 @@
       <c r="D38" s="11">
         <v>16170</v>
       </c>
+      <c r="E38" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H38" s="7" t="s">
         <v>75</v>
       </c>
@@ -1781,6 +1912,9 @@
       <c r="D39" s="11">
         <v>43</v>
       </c>
+      <c r="E39" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H39" s="7" t="s">
         <v>49</v>
       </c>
@@ -1795,6 +1929,9 @@
       <c r="D40" s="11">
         <v>169</v>
       </c>
+      <c r="E40" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H40" s="7" t="s">
         <v>76</v>
       </c>
@@ -1809,6 +1946,9 @@
       <c r="D41" s="11">
         <v>347</v>
       </c>
+      <c r="E41" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H41" s="7" t="s">
         <v>50</v>
       </c>
@@ -1820,6 +1960,9 @@
       <c r="D42" s="11">
         <v>52725</v>
       </c>
+      <c r="E42" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H42" s="7" t="s">
         <v>77</v>
       </c>
@@ -1831,6 +1974,9 @@
       <c r="D43" s="11">
         <v>306</v>
       </c>
+      <c r="E43" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H43" s="7" t="s">
         <v>51</v>
       </c>
@@ -1842,6 +1988,9 @@
       <c r="D44" s="11">
         <v>361</v>
       </c>
+      <c r="E44" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H44" s="7" t="s">
         <v>78</v>
       </c>
@@ -1856,6 +2005,9 @@
       <c r="D45" s="11">
         <v>28873</v>
       </c>
+      <c r="E45" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H45" s="7" t="s">
         <v>52</v>
       </c>
@@ -1867,6 +2019,9 @@
       <c r="D46" s="11">
         <v>318</v>
       </c>
+      <c r="E46" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H46" s="7" t="s">
         <v>80</v>
       </c>
@@ -1878,6 +2033,9 @@
       <c r="D47" s="11">
         <v>168</v>
       </c>
+      <c r="E47" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H47" s="7" t="s">
         <v>53</v>
       </c>
@@ -1892,6 +2050,9 @@
       <c r="D48" s="11">
         <v>4798</v>
       </c>
+      <c r="E48" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H48" s="7" t="s">
         <v>81</v>
       </c>
@@ -1903,6 +2064,9 @@
       <c r="D49" s="11">
         <v>378</v>
       </c>
+      <c r="E49" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H49" s="5" t="s">
         <v>54</v>
       </c>
@@ -1917,6 +2081,9 @@
       <c r="D50" s="11">
         <v>856</v>
       </c>
+      <c r="E50" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H50" s="5" t="s">
         <v>82</v>
       </c>
@@ -1928,6 +2095,9 @@
       <c r="D51" s="11">
         <v>4028</v>
       </c>
+      <c r="E51" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H51" s="5" t="s">
         <v>116</v>
       </c>
@@ -1939,6 +2109,9 @@
       <c r="D52" s="11">
         <v>14004</v>
       </c>
+      <c r="E52" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="H52" s="5" t="s">
         <v>79</v>
       </c>
@@ -1949,6 +2122,9 @@
       </c>
       <c r="D53" s="11">
         <v>176</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>55</v>
@@ -1970,6 +2146,219 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2E41D-5379-4432-B8CD-0646353AC1C2}">
+  <dimension ref="A3:I55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="10"/>
+    <col min="2" max="2" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="8.88671875" style="11"/>
+    <col min="5" max="5" width="12.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="6.5546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="74.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="13"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="13"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H55" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:H54"/>
   <sheetViews>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0900CC0-98F6-491E-9FE0-F58167FC57B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C831A67-4F23-426D-BF09-28BC6D2E4DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="125">
   <si>
     <t>Paper id</t>
   </si>
@@ -1272,9 +1272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,6 +1383,9 @@
       <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I7" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -1394,9 +1397,6 @@
       <c r="E8" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="H8" s="7" t="s">
         <v>113</v>
       </c>
@@ -1607,6 +1607,9 @@
       <c r="H20" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="I20" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
@@ -1725,17 +1728,16 @@
       <c r="B28" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="11">
-        <v>20</v>
+      <c r="D28" s="10">
+        <v>1585</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>111</v>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2114,6 +2116,9 @@
       </c>
       <c r="H52" s="5" t="s">
         <v>79</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2147,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2E41D-5379-4432-B8CD-0646353AC1C2}">
-  <dimension ref="A3:I55"/>
+  <dimension ref="A3:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2196,44 +2201,231 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="7"/>
+      <c r="B4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="11">
+        <v>308</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="7"/>
+      <c r="B5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2006</v>
+      </c>
+      <c r="D5" s="11">
+        <v>286</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="7"/>
+      <c r="B6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2002</v>
+      </c>
+      <c r="D6" s="11">
+        <v>142</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="7"/>
+      <c r="B7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2002</v>
+      </c>
+      <c r="D7" s="11">
+        <v>341</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="7"/>
+      <c r="B8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2016</v>
+      </c>
+      <c r="D8" s="11">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="7"/>
+      <c r="B9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1993</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4528</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="10">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="7"/>
+      <c r="B10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D10" s="11">
+        <v>169</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="7"/>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2015</v>
+      </c>
+      <c r="D11" s="11">
+        <v>104</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="7"/>
+      <c r="B12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2002</v>
+      </c>
+      <c r="D12" s="11">
+        <v>5224</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="7"/>
+      <c r="B13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2005</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1945</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="7"/>
+      <c r="B14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2003</v>
+      </c>
+      <c r="D14" s="11">
+        <v>7971</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="7"/>
-    </row>
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2015</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1061</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" s="7"/>
     </row>
@@ -2256,7 +2448,6 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="13"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2266,13 +2457,13 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="13"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="13"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2282,6 +2473,7 @@
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="13"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2333,54 +2525,71 @@
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H49" s="5"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H50" s="5"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H51" s="5"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H52" s="5"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H53" s="5"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H55" s="8"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H60" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B3:H54"/>
+  <dimension ref="B3:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="10"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -2396,50 +2605,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4">
+    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="10">
         <v>28982</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5">
+    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="10">
         <v>7285</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6">
-        <v>1554</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="10"/>
+      <c r="D6" s="11">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2477,7 +2689,6 @@
     <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0900CC0-98F6-491E-9FE0-F58167FC57B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5472C65-6EF1-4056-B357-C14981F929D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5472C65-6EF1-4056-B357-C14981F929D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E004FEB1-8CD3-424F-BFFE-DEA7F8D526A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E004FEB1-8CD3-424F-BFFE-DEA7F8D526A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C831A67-4F23-426D-BF09-28BC6D2E4DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="125">
   <si>
     <t>Paper id</t>
   </si>
@@ -1272,9 +1272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,6 +1383,9 @@
       <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I7" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -1394,9 +1397,6 @@
       <c r="E8" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="H8" s="7" t="s">
         <v>113</v>
       </c>
@@ -1607,6 +1607,9 @@
       <c r="H20" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="I20" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
@@ -1725,17 +1728,16 @@
       <c r="B28" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="11">
-        <v>20</v>
+      <c r="D28" s="10">
+        <v>1585</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>111</v>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2114,6 +2116,9 @@
       </c>
       <c r="H52" s="5" t="s">
         <v>79</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2147,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2E41D-5379-4432-B8CD-0646353AC1C2}">
-  <dimension ref="A3:I55"/>
+  <dimension ref="A3:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2196,44 +2201,231 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="7"/>
+      <c r="B4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="11">
+        <v>308</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="7"/>
+      <c r="B5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2006</v>
+      </c>
+      <c r="D5" s="11">
+        <v>286</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="7"/>
+      <c r="B6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2002</v>
+      </c>
+      <c r="D6" s="11">
+        <v>142</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="7"/>
+      <c r="B7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2002</v>
+      </c>
+      <c r="D7" s="11">
+        <v>341</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="7"/>
+      <c r="B8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2016</v>
+      </c>
+      <c r="D8" s="11">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="7"/>
+      <c r="B9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1993</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4528</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="10">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="7"/>
+      <c r="B10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D10" s="11">
+        <v>169</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="7"/>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2015</v>
+      </c>
+      <c r="D11" s="11">
+        <v>104</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="7"/>
+      <c r="B12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2002</v>
+      </c>
+      <c r="D12" s="11">
+        <v>5224</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="7"/>
+      <c r="B13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2005</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1945</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="7"/>
+      <c r="B14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2003</v>
+      </c>
+      <c r="D14" s="11">
+        <v>7971</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="7"/>
-    </row>
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2015</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1061</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" s="7"/>
     </row>
@@ -2256,7 +2448,6 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="13"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2266,13 +2457,13 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="13"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="13"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2282,6 +2473,7 @@
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="13"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2333,54 +2525,71 @@
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H49" s="5"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H50" s="5"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H51" s="5"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H52" s="5"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H53" s="5"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H55" s="8"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H60" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B3:H54"/>
+  <dimension ref="B3:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="10"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -2396,50 +2605,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4">
+    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="10">
         <v>28982</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5">
+    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="10">
         <v>7285</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6">
-        <v>1554</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="10"/>
+      <c r="D6" s="11">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2477,7 +2689,6 @@
     <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C831A67-4F23-426D-BF09-28BC6D2E4DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF8F2D9-F6B7-4BC8-8E36-CC266BB6E5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30210" yWindow="420" windowWidth="17280" windowHeight="8970" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="4" r:id="rId1"/>
     <sheet name="System" sheetId="3" r:id="rId2"/>
     <sheet name="review_papers" sheetId="12" r:id="rId3"/>
-    <sheet name="DL_later" sheetId="10" r:id="rId4"/>
+    <sheet name="books" sheetId="13" r:id="rId4"/>
+    <sheet name="DL_later" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="139">
   <si>
     <t>Paper id</t>
   </si>
@@ -801,12 +802,75 @@
     <t xml:space="preserve">Paper
 type </t>
   </si>
+  <si>
+    <t xml:space="preserve"> Book id</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Computer Vision: Algorithms and Applications</t>
+  </si>
+  <si>
+    <t>book01</t>
+  </si>
+  <si>
+    <t>book02</t>
+  </si>
+  <si>
+    <t>Deep Learning in Object Recognition, Detection, and Segmentation</t>
+  </si>
+  <si>
+    <t>Image Processing Principles and Applications</t>
+  </si>
+  <si>
+    <t>book03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  year={2017},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  organization={IEEE}</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>@inproceedings{tian2017video,
+  title={Video object detection for tractability with deep learning method},
+  author={Tian, Bing and Li, Liang and Qu, Yansheng and Yan, Li},
+  booktitle={2017 Fifth International Conference on Advanced Cloud and Big Data (CBD)},
+  pages={397--401},
+  year={2017},
+  organization={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>@article{abbas2019comprehensive,
+  title={A comprehensive review of recent advances on deep vision systems},
+  author={Abbas, Qaisar and Ibrahim, Mostafa EA and Jaffar, M Arfan},
+  journal={Artificial Intelligence Review},
+  volume={52},
+  number={1},
+  pages={39--76},
+  year={2019},
+  publisher={Springer}
+}</t>
+  </si>
+  <si>
+    <t>@article{wang2019salient,
+  title={Salient Object Detection in the Deep Learning Era: An In-Depth Survey},
+  author={Wang, Wenguan and Lai, Qiuxia and Fu, Huazhu and Shen, Jianbing and Ling, Haibin},
+  journal={arXiv preprint arXiv:1904.09146},
+  year={2019}
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,6 +890,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -848,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -883,6 +966,24 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,14 +1271,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="69.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="30" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1203,65 +1304,65 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="30" customHeight="1">
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="30" customHeight="1">
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="30" customHeight="1">
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="30" customHeight="1">
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:9" ht="30" customHeight="1"/>
+    <row r="9" spans="2:9" ht="30" customHeight="1"/>
+    <row r="10" spans="2:9" ht="30" customHeight="1"/>
+    <row r="11" spans="2:9" ht="30" customHeight="1"/>
+    <row r="12" spans="2:9" ht="30" customHeight="1"/>
+    <row r="13" spans="2:9" ht="30" customHeight="1"/>
+    <row r="14" spans="2:9" ht="30" customHeight="1"/>
+    <row r="15" spans="2:9" ht="30" customHeight="1"/>
+    <row r="16" spans="2:9" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="30" customHeight="1"/>
+    <row r="22" ht="30" customHeight="1"/>
+    <row r="23" ht="30" customHeight="1"/>
+    <row r="24" ht="30" customHeight="1"/>
+    <row r="25" ht="30" customHeight="1"/>
+    <row r="26" ht="30" customHeight="1"/>
+    <row r="27" ht="30" customHeight="1"/>
+    <row r="28" ht="30" customHeight="1"/>
+    <row r="29" ht="30" customHeight="1"/>
+    <row r="30" ht="30" customHeight="1"/>
+    <row r="31" ht="30" customHeight="1"/>
+    <row r="32" ht="30" customHeight="1"/>
+    <row r="33" ht="30" customHeight="1"/>
+    <row r="34" ht="30" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="30" customHeight="1"/>
+    <row r="38" ht="30" customHeight="1"/>
+    <row r="39" ht="30" customHeight="1"/>
+    <row r="40" ht="30" customHeight="1"/>
+    <row r="41" ht="30" customHeight="1"/>
+    <row r="42" ht="30" customHeight="1"/>
+    <row r="43" ht="30" customHeight="1"/>
+    <row r="44" ht="30" customHeight="1"/>
+    <row r="45" ht="30" customHeight="1"/>
+    <row r="46" ht="30" customHeight="1"/>
+    <row r="47" ht="30" customHeight="1"/>
+    <row r="48" ht="30" customHeight="1"/>
+    <row r="49" ht="30" customHeight="1"/>
+    <row r="50" ht="30" customHeight="1"/>
+    <row r="51" ht="30" customHeight="1"/>
+    <row r="52" ht="30" customHeight="1"/>
+    <row r="53" ht="30" customHeight="1"/>
+    <row r="54" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1272,12 +1373,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="10"/>
     <col min="2" max="2" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
@@ -1290,7 +1391,7 @@
     <col min="9" max="9" width="16.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>117</v>
       </c>
@@ -1319,7 +1420,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="30" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>114</v>
       </c>
@@ -1339,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +1454,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="B6" s="10" t="s">
         <v>85</v>
       </c>
@@ -1370,7 +1471,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="30" customHeight="1">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1387,7 +1488,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" customHeight="1">
       <c r="B8" s="10" t="s">
         <v>86</v>
       </c>
@@ -1404,7 +1505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>114</v>
       </c>
@@ -1424,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" customHeight="1">
       <c r="B10" s="10" t="s">
         <v>87</v>
       </c>
@@ -1438,7 +1539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1455,7 +1556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>88</v>
       </c>
@@ -1472,7 +1573,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -1486,7 +1587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="30" customHeight="1">
       <c r="B14" s="10" t="s">
         <v>89</v>
       </c>
@@ -1503,7 +1604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="30" customHeight="1">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -1517,7 +1618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>114</v>
       </c>
@@ -1537,7 +1638,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="30" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>114</v>
       </c>
@@ -1560,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="30" customHeight="1">
       <c r="B18" s="10" t="s">
         <v>91</v>
       </c>
@@ -1574,7 +1675,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="30" customHeight="1">
       <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
@@ -1594,7 +1695,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="30" customHeight="1">
       <c r="B20" s="10" t="s">
         <v>92</v>
       </c>
@@ -1611,7 +1712,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" customHeight="1">
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
@@ -1625,7 +1726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="30" customHeight="1">
       <c r="B22" s="10" t="s">
         <v>93</v>
       </c>
@@ -1642,7 +1743,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="30" customHeight="1">
       <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1760,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="30" customHeight="1">
       <c r="B24" s="10" t="s">
         <v>94</v>
       </c>
@@ -1676,7 +1777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="30" customHeight="1">
       <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
@@ -1693,7 +1794,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="30" customHeight="1">
       <c r="B26" s="10" t="s">
         <v>95</v>
       </c>
@@ -1707,7 +1808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="30" customHeight="1">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1724,7 +1825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="30" customHeight="1">
       <c r="B28" s="10" t="s">
         <v>96</v>
       </c>
@@ -1740,7 +1841,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="30" customHeight="1">
       <c r="B29" s="10" t="s">
         <v>30</v>
       </c>
@@ -1757,7 +1858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="30" customHeight="1">
       <c r="B30" s="10" t="s">
         <v>97</v>
       </c>
@@ -1774,7 +1875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="30" customHeight="1">
       <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
@@ -1791,7 +1892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="30" customHeight="1">
       <c r="B32" s="10" t="s">
         <v>98</v>
       </c>
@@ -1808,7 +1909,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="30" customHeight="1">
       <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
@@ -1825,7 +1926,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="30" customHeight="1">
       <c r="B34" s="10" t="s">
         <v>99</v>
       </c>
@@ -1845,7 +1946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="30" customHeight="1">
       <c r="B35" s="10" t="s">
         <v>38</v>
       </c>
@@ -1862,7 +1963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="30" customHeight="1">
       <c r="B36" s="10" t="s">
         <v>100</v>
       </c>
@@ -1879,7 +1980,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" ht="30" customHeight="1">
       <c r="B37" s="10" t="s">
         <v>39</v>
       </c>
@@ -1893,7 +1994,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="30" customHeight="1">
       <c r="B38" s="10" t="s">
         <v>101</v>
       </c>
@@ -1907,7 +2008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="30" customHeight="1">
       <c r="B39" s="10" t="s">
         <v>40</v>
       </c>
@@ -1924,7 +2025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" ht="30" customHeight="1">
       <c r="B40" s="10" t="s">
         <v>102</v>
       </c>
@@ -1941,7 +2042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="30" customHeight="1">
       <c r="B41" s="10" t="s">
         <v>41</v>
       </c>
@@ -1955,7 +2056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="30" customHeight="1">
       <c r="B42" s="10" t="s">
         <v>103</v>
       </c>
@@ -1969,7 +2070,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="30" customHeight="1">
       <c r="B43" s="10" t="s">
         <v>42</v>
       </c>
@@ -1983,7 +2084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" ht="30" customHeight="1">
       <c r="B44" s="10" t="s">
         <v>104</v>
       </c>
@@ -2000,7 +2101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" ht="30" customHeight="1">
       <c r="B45" s="10" t="s">
         <v>43</v>
       </c>
@@ -2014,7 +2115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" ht="30" customHeight="1">
       <c r="B46" s="10" t="s">
         <v>105</v>
       </c>
@@ -2028,7 +2129,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" ht="30" customHeight="1">
       <c r="B47" s="10" t="s">
         <v>44</v>
       </c>
@@ -2045,7 +2146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" ht="30" customHeight="1">
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
@@ -2059,7 +2160,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" ht="30" customHeight="1">
       <c r="B49" s="10" t="s">
         <v>45</v>
       </c>
@@ -2076,7 +2177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" ht="30" customHeight="1">
       <c r="B50" s="10" t="s">
         <v>107</v>
       </c>
@@ -2090,7 +2191,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" ht="30" customHeight="1">
       <c r="B51" s="10" t="s">
         <v>46</v>
       </c>
@@ -2104,7 +2205,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="30" customHeight="1">
       <c r="B52" s="10" t="s">
         <v>108</v>
       </c>
@@ -2121,7 +2222,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" ht="30" customHeight="1">
       <c r="B53" s="10" t="s">
         <v>47</v>
       </c>
@@ -2138,10 +2239,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" ht="30" customHeight="1">
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9">
       <c r="H55" s="8"/>
     </row>
   </sheetData>
@@ -2158,7 +2259,7 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="10"/>
     <col min="2" max="2" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
@@ -2171,7 +2272,7 @@
     <col min="9" max="9" width="16.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>117</v>
       </c>
@@ -2200,7 +2301,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="30" customHeight="1">
       <c r="B4" s="10" t="s">
         <v>86</v>
       </c>
@@ -2217,7 +2318,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>89</v>
       </c>
@@ -2234,7 +2335,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="B6" s="10" t="s">
         <v>90</v>
       </c>
@@ -2251,7 +2352,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="30" customHeight="1">
       <c r="B7" s="10" t="s">
         <v>91</v>
       </c>
@@ -2268,7 +2369,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" customHeight="1">
       <c r="B8" s="10" t="s">
         <v>100</v>
       </c>
@@ -2285,7 +2386,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" customHeight="1">
       <c r="B9" s="10" t="s">
         <v>99</v>
       </c>
@@ -2305,7 +2406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" customHeight="1">
       <c r="B10" s="10" t="s">
         <v>102</v>
       </c>
@@ -2325,7 +2426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -2345,7 +2446,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>92</v>
       </c>
@@ -2365,7 +2466,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="B13" s="10" t="s">
         <v>93</v>
       </c>
@@ -2385,7 +2486,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="30" customHeight="1">
       <c r="B14" s="10" t="s">
         <v>98</v>
       </c>
@@ -2405,7 +2506,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="30" customHeight="1">
       <c r="B15" s="10" t="s">
         <v>32</v>
       </c>
@@ -2425,139 +2526,139 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" customHeight="1"/>
+    <row r="17" spans="4:8" ht="30" customHeight="1">
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:8" ht="30" customHeight="1">
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:8" ht="30" customHeight="1">
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:8" ht="30" customHeight="1">
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:8" ht="30" customHeight="1">
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:8" ht="30" customHeight="1">
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:8" ht="30" customHeight="1">
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:8" ht="30" customHeight="1">
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:8" ht="30" customHeight="1">
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:8" ht="30" customHeight="1">
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:8" ht="30" customHeight="1">
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:8" ht="30" customHeight="1">
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:8" ht="30" customHeight="1">
       <c r="D29" s="13"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:8" ht="30" customHeight="1">
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:8" ht="30" customHeight="1">
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:8" ht="30" customHeight="1">
       <c r="D32" s="13"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:8" ht="30" customHeight="1">
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:8" ht="30" customHeight="1">
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:8" ht="30" customHeight="1">
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:8" ht="30" customHeight="1">
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:8" ht="30" customHeight="1">
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:8" ht="30" customHeight="1">
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:8" ht="30" customHeight="1">
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:8" ht="30" customHeight="1">
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:8" ht="30" customHeight="1">
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:8" ht="30" customHeight="1">
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:8" ht="30" customHeight="1">
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:8" ht="30" customHeight="1">
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:8" ht="30" customHeight="1">
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:8" ht="30" customHeight="1">
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:8" ht="30" customHeight="1">
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="8:8" ht="30" customHeight="1">
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:8" ht="30" customHeight="1">
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:8" ht="30" customHeight="1">
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:8" ht="30" customHeight="1">
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:8" ht="30" customHeight="1">
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:8" ht="30" customHeight="1">
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:8" ht="30" customHeight="1">
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:8" ht="30" customHeight="1">
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:8" ht="30" customHeight="1">
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:8" ht="30" customHeight="1">
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:8" ht="30" customHeight="1">
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:8" ht="30" customHeight="1">
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:8">
       <c r="H60" s="8"/>
     </row>
   </sheetData>
@@ -2567,22 +2668,81 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE7EA67-9844-4B3E-A2CE-A2FF2E443BC2}">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="62.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" s="15" customFormat="1" ht="32.4" customHeight="1">
+      <c r="C3" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1">
+      <c r="C4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1">
+      <c r="C5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1">
+      <c r="C6" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="8" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="9" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="10" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="11" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="12" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="13" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="14" spans="3:5" ht="19.95" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="10"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="69.109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="30" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2601,27 +2761,27 @@
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="30" customHeight="1">
       <c r="D4" s="10">
         <v>28982</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="30" customHeight="1">
       <c r="D5" s="10">
         <v>7285</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="30" customHeight="1">
       <c r="C6" s="10"/>
       <c r="D6" s="11">
         <v>20</v>
@@ -2629,66 +2789,95 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="18" t="s">
         <v>70</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:9" ht="30" customHeight="1">
+      <c r="D7" s="10">
+        <v>5</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="30" customHeight="1">
+      <c r="D8" s="10">
+        <v>7</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="30" customHeight="1">
+      <c r="D9" s="10">
+        <v>15</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="30" customHeight="1">
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="2:9" ht="30" customHeight="1">
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="2:9" ht="30" customHeight="1">
+      <c r="H12" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="30" customHeight="1">
+      <c r="H13" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="30" customHeight="1">
+      <c r="H14" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="30" customHeight="1"/>
+    <row r="16" spans="2:9" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="30" customHeight="1"/>
+    <row r="22" ht="30" customHeight="1"/>
+    <row r="23" ht="30" customHeight="1"/>
+    <row r="24" ht="30" customHeight="1"/>
+    <row r="25" ht="30" customHeight="1"/>
+    <row r="26" ht="30" customHeight="1"/>
+    <row r="27" ht="30" customHeight="1"/>
+    <row r="28" ht="30" customHeight="1"/>
+    <row r="29" ht="30" customHeight="1"/>
+    <row r="30" ht="30" customHeight="1"/>
+    <row r="31" ht="30" customHeight="1"/>
+    <row r="32" ht="30" customHeight="1"/>
+    <row r="33" ht="30" customHeight="1"/>
+    <row r="34" ht="30" customHeight="1"/>
+    <row r="35" ht="30" customHeight="1"/>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="30" customHeight="1"/>
+    <row r="38" ht="30" customHeight="1"/>
+    <row r="39" ht="30" customHeight="1"/>
+    <row r="40" ht="30" customHeight="1"/>
+    <row r="41" ht="30" customHeight="1"/>
+    <row r="42" ht="30" customHeight="1"/>
+    <row r="43" ht="30" customHeight="1"/>
+    <row r="44" ht="30" customHeight="1"/>
+    <row r="45" ht="30" customHeight="1"/>
+    <row r="46" ht="30" customHeight="1"/>
+    <row r="47" ht="30" customHeight="1"/>
+    <row r="48" ht="30" customHeight="1"/>
+    <row r="49" ht="30" customHeight="1"/>
+    <row r="50" ht="30" customHeight="1"/>
+    <row r="51" ht="30" customHeight="1"/>
+    <row r="52" ht="30" customHeight="1"/>
+    <row r="53" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF8F2D9-F6B7-4BC8-8E36-CC266BB6E5E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83FAB63-07A6-4A56-9051-DA6470CC4D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="420" windowWidth="17280" windowHeight="8970" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="4" r:id="rId1"/>
@@ -1373,9 +1373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1673,6 +1673,9 @@
       </c>
       <c r="H18" s="7" t="s">
         <v>65</v>
+      </c>
+      <c r="I18" s="10">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1">
@@ -2730,7 +2733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83FAB63-07A6-4A56-9051-DA6470CC4D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AE59A4-B462-4A6B-8B51-74F373BC7859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dataset" sheetId="4" r:id="rId1"/>
-    <sheet name="System" sheetId="3" r:id="rId2"/>
-    <sheet name="review_papers" sheetId="12" r:id="rId3"/>
-    <sheet name="books" sheetId="13" r:id="rId4"/>
-    <sheet name="DL_later" sheetId="10" r:id="rId5"/>
+    <sheet name="Papers" sheetId="3" r:id="rId1"/>
+    <sheet name="review_papers" sheetId="12" r:id="rId2"/>
+    <sheet name="books" sheetId="13" r:id="rId3"/>
+    <sheet name="DL_later" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="138">
   <si>
     <t>Paper id</t>
-  </si>
-  <si>
-    <t>link</t>
   </si>
   <si>
     <t>citation</t>
@@ -931,9 +927,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1264,105 +1259,884 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="69.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="12.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="8.88671875" style="10"/>
+    <col min="5" max="5" width="12.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="6.5546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="74.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="30" customHeight="1">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:9" ht="30" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="10">
+        <v>407</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="9">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1">
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10">
+        <v>829</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1">
+      <c r="B6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2951</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10">
+        <v>104</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1">
+      <c r="B8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="10">
+        <v>308</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10">
+        <v>490</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="9">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1">
+      <c r="B10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="10">
+        <v>353</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1">
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10">
+        <v>11186</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1">
+      <c r="B12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="10">
+        <v>830</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1">
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="10">
+        <v>908</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1">
+      <c r="B14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="10">
+        <v>286</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1">
+      <c r="B15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10">
+        <v>161</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="10">
+        <v>142</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10">
+        <v>414</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="9">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1">
+      <c r="B18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="10">
+        <v>341</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1">
+      <c r="B19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="10">
+        <v>312</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1">
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1">
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1">
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1">
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1"/>
-    <row r="9" spans="2:9" ht="30" customHeight="1"/>
-    <row r="10" spans="2:9" ht="30" customHeight="1"/>
-    <row r="11" spans="2:9" ht="30" customHeight="1"/>
-    <row r="12" spans="2:9" ht="30" customHeight="1"/>
-    <row r="13" spans="2:9" ht="30" customHeight="1"/>
-    <row r="14" spans="2:9" ht="30" customHeight="1"/>
-    <row r="15" spans="2:9" ht="30" customHeight="1"/>
-    <row r="16" spans="2:9" ht="30" customHeight="1"/>
-    <row r="17" ht="30" customHeight="1"/>
-    <row r="18" ht="30" customHeight="1"/>
-    <row r="19" ht="30" customHeight="1"/>
-    <row r="20" ht="30" customHeight="1"/>
-    <row r="21" ht="30" customHeight="1"/>
-    <row r="22" ht="30" customHeight="1"/>
-    <row r="23" ht="30" customHeight="1"/>
-    <row r="24" ht="30" customHeight="1"/>
-    <row r="25" ht="30" customHeight="1"/>
-    <row r="26" ht="30" customHeight="1"/>
-    <row r="27" ht="30" customHeight="1"/>
-    <row r="28" ht="30" customHeight="1"/>
-    <row r="29" ht="30" customHeight="1"/>
-    <row r="30" ht="30" customHeight="1"/>
-    <row r="31" ht="30" customHeight="1"/>
-    <row r="32" ht="30" customHeight="1"/>
-    <row r="33" ht="30" customHeight="1"/>
-    <row r="34" ht="30" customHeight="1"/>
-    <row r="35" ht="30" customHeight="1"/>
-    <row r="36" ht="30" customHeight="1"/>
-    <row r="37" ht="30" customHeight="1"/>
-    <row r="38" ht="30" customHeight="1"/>
-    <row r="39" ht="30" customHeight="1"/>
-    <row r="40" ht="30" customHeight="1"/>
-    <row r="41" ht="30" customHeight="1"/>
-    <row r="42" ht="30" customHeight="1"/>
-    <row r="43" ht="30" customHeight="1"/>
-    <row r="44" ht="30" customHeight="1"/>
-    <row r="45" ht="30" customHeight="1"/>
-    <row r="46" ht="30" customHeight="1"/>
-    <row r="47" ht="30" customHeight="1"/>
-    <row r="48" ht="30" customHeight="1"/>
-    <row r="49" ht="30" customHeight="1"/>
-    <row r="50" ht="30" customHeight="1"/>
-    <row r="51" ht="30" customHeight="1"/>
-    <row r="52" ht="30" customHeight="1"/>
-    <row r="53" ht="30" customHeight="1"/>
-    <row r="54" ht="30" customHeight="1"/>
+      <c r="H19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1">
+      <c r="B20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="10">
+        <v>5224</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1">
+      <c r="B21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1793</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1">
+      <c r="B22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1945</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1">
+      <c r="B23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="10">
+        <v>403</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1">
+      <c r="B24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1791</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1">
+      <c r="B25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="10">
+        <v>217</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1">
+      <c r="B26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1297</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1">
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="12">
+        <v>11885</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" customHeight="1">
+      <c r="B28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1585</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1">
+      <c r="B29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="10">
+        <v>5438</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1">
+      <c r="B30" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="10">
+        <v>333</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1">
+      <c r="B31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1650</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1">
+      <c r="B32" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="10">
+        <v>7971</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="30" customHeight="1">
+      <c r="B33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1061</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="30" customHeight="1">
+      <c r="B34" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="10">
+        <v>4528</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="30" customHeight="1">
+      <c r="B35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="10">
+        <v>583</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="30" customHeight="1">
+      <c r="B36" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="10">
+        <v>7</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="30" customHeight="1">
+      <c r="B37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="10">
+        <v>351</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="30" customHeight="1">
+      <c r="B38" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="10">
+        <v>16170</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="30" customHeight="1">
+      <c r="B39" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="10">
+        <v>43</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="30" customHeight="1">
+      <c r="B40" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="10">
+        <v>169</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="30" customHeight="1">
+      <c r="B41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="10">
+        <v>347</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="30" customHeight="1">
+      <c r="B42" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="10">
+        <v>52725</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="30" customHeight="1">
+      <c r="B43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="10">
+        <v>306</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="30" customHeight="1">
+      <c r="B44" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="10">
+        <v>361</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="30" customHeight="1">
+      <c r="B45" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="10">
+        <v>28873</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="30" customHeight="1">
+      <c r="B46" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="10">
+        <v>318</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="30" customHeight="1">
+      <c r="B47" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="10">
+        <v>168</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="30" customHeight="1">
+      <c r="B48" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="10">
+        <v>4798</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="30" customHeight="1">
+      <c r="B49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="10">
+        <v>378</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="30" customHeight="1">
+      <c r="B50" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="10">
+        <v>856</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="30" customHeight="1">
+      <c r="B51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="10">
+        <v>4028</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="30" customHeight="1">
+      <c r="B52" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="10">
+        <v>14004</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="30" customHeight="1">
+      <c r="B53" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="10">
+        <v>176</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="30" customHeight="1">
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="H55" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1370,891 +2144,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:I55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="10"/>
-    <col min="2" max="2" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="10"/>
-    <col min="4" max="4" width="8.88671875" style="11"/>
-    <col min="5" max="5" width="12.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="10"/>
-    <col min="7" max="7" width="6.5546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="74.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:9" ht="30" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="11">
-        <v>407</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11">
-        <v>829</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1">
-      <c r="B6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2951</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1">
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="11">
-        <v>104</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1">
-      <c r="B8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="11">
-        <v>308</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="11">
-        <v>490</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="11">
-        <v>353</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1">
-      <c r="B11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="11">
-        <v>11186</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1">
-      <c r="B12" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="11">
-        <v>830</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1">
-      <c r="B13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="11">
-        <v>908</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1">
-      <c r="B14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="11">
-        <v>286</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="11">
-        <v>161</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="11">
-        <v>142</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="11">
-        <v>414</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1">
-      <c r="B18" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="11">
-        <v>341</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1">
-      <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="11">
-        <v>312</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1">
-      <c r="B20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="11">
-        <v>5224</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1">
-      <c r="B21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="11">
-        <v>1793</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1">
-      <c r="B22" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1945</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1">
-      <c r="B23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="11">
-        <v>403</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1">
-      <c r="B24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="13">
-        <v>1791</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1">
-      <c r="B25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="11">
-        <v>217</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1">
-      <c r="B26" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="11">
-        <v>1297</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1">
-      <c r="B27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="13">
-        <v>11885</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1">
-      <c r="B28" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1585</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1">
-      <c r="B29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="11">
-        <v>5438</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1">
-      <c r="B30" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="11">
-        <v>333</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1">
-      <c r="B31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="11">
-        <v>1650</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" customHeight="1">
-      <c r="B32" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="11">
-        <v>7971</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="30" customHeight="1">
-      <c r="B33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="11">
-        <v>1061</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="30" customHeight="1">
-      <c r="B34" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="11">
-        <v>4528</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="30" customHeight="1">
-      <c r="B35" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="11">
-        <v>583</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="30" customHeight="1">
-      <c r="B36" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="11">
-        <v>7</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="30" customHeight="1">
-      <c r="B37" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="11">
-        <v>351</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="30" customHeight="1">
-      <c r="B38" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="11">
-        <v>16170</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="30" customHeight="1">
-      <c r="B39" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="11">
-        <v>43</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="30" customHeight="1">
-      <c r="B40" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="11">
-        <v>169</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I40" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="30" customHeight="1">
-      <c r="B41" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="11">
-        <v>347</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="30" customHeight="1">
-      <c r="B42" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="11">
-        <v>52725</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="30" customHeight="1">
-      <c r="B43" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="11">
-        <v>306</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="30" customHeight="1">
-      <c r="B44" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="11">
-        <v>361</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I44" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="30" customHeight="1">
-      <c r="B45" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="11">
-        <v>28873</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="30" customHeight="1">
-      <c r="B46" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="11">
-        <v>318</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="30" customHeight="1">
-      <c r="B47" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="11">
-        <v>168</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I47" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="30" customHeight="1">
-      <c r="B48" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="11">
-        <v>4798</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="30" customHeight="1">
-      <c r="B49" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="11">
-        <v>378</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="30" customHeight="1">
-      <c r="B50" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="11">
-        <v>856</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="30" customHeight="1">
-      <c r="B51" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="11">
-        <v>4028</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="30" customHeight="1">
-      <c r="B52" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="11">
-        <v>14004</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="30" customHeight="1">
-      <c r="B53" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="11">
-        <v>176</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I53" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="30" customHeight="1">
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="H55" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2E41D-5379-4432-B8CD-0646353AC1C2}">
   <dimension ref="A3:I60"/>
   <sheetViews>
@@ -2264,405 +2153,405 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="10"/>
-    <col min="2" max="2" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="10"/>
-    <col min="4" max="4" width="8.88671875" style="11"/>
-    <col min="5" max="5" width="12.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="10"/>
-    <col min="7" max="7" width="6.5546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="74.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="12.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="8.88671875" style="10"/>
+    <col min="5" max="5" width="12.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="6.5546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="74.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="30" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>109</v>
+      <c r="I3" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1">
-      <c r="B4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="9">
         <v>2019</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>308</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>113</v>
+      <c r="E4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2006</v>
+      </c>
+      <c r="D5" s="10">
+        <v>286</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1">
+      <c r="B6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="10">
-        <v>2006</v>
-      </c>
-      <c r="D5" s="11">
-        <v>286</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="C6" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D6" s="10">
+        <v>142</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1">
-      <c r="B6" s="10" t="s">
+    <row r="7" spans="1:9" ht="30" customHeight="1">
+      <c r="B7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C7" s="9">
         <v>2002</v>
       </c>
-      <c r="D6" s="11">
-        <v>142</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="D7" s="10">
+        <v>341</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1">
-      <c r="B7" s="10" t="s">
+    <row r="8" spans="1:9" ht="30" customHeight="1">
+      <c r="B8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D8" s="10">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1">
+      <c r="B9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1993</v>
+      </c>
+      <c r="D9" s="10">
+        <v>4528</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1">
+      <c r="B10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2010</v>
+      </c>
+      <c r="D10" s="10">
+        <v>169</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1">
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D11" s="10">
+        <v>104</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1">
+      <c r="B12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C12" s="9">
         <v>2002</v>
       </c>
-      <c r="D7" s="11">
-        <v>341</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="D12" s="10">
+        <v>5224</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1">
-      <c r="B8" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="10">
-        <v>2016</v>
-      </c>
-      <c r="D8" s="11">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1">
-      <c r="B9" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1993</v>
-      </c>
-      <c r="D9" s="11">
-        <v>4528</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D10" s="11">
-        <v>169</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1">
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="I12" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1">
+      <c r="B13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1945</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1">
+      <c r="B14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D14" s="10">
+        <v>7971</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1">
+      <c r="B15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9">
         <v>2015</v>
       </c>
-      <c r="D11" s="11">
-        <v>104</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1">
-      <c r="B12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2002</v>
-      </c>
-      <c r="D12" s="11">
-        <v>5224</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1">
-      <c r="B13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2005</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1945</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1">
-      <c r="B14" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2003</v>
-      </c>
-      <c r="D14" s="11">
-        <v>7971</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2015</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>1061</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>111</v>
+      <c r="E15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1"/>
     <row r="17" spans="4:8" ht="30" customHeight="1">
-      <c r="H17" s="7"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="4:8" ht="30" customHeight="1">
-      <c r="H18" s="7"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="4:8" ht="30" customHeight="1">
-      <c r="H19" s="7"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="4:8" ht="30" customHeight="1">
-      <c r="H20" s="7"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="4:8" ht="30" customHeight="1">
-      <c r="H21" s="7"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="4:8" ht="30" customHeight="1">
-      <c r="H22" s="7"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="4:8" ht="30" customHeight="1">
-      <c r="H23" s="7"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="4:8" ht="30" customHeight="1">
-      <c r="H24" s="7"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="4:8" ht="30" customHeight="1">
-      <c r="H25" s="7"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="4:8" ht="30" customHeight="1">
-      <c r="H26" s="7"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="4:8" ht="30" customHeight="1">
-      <c r="H27" s="7"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="4:8" ht="30" customHeight="1">
-      <c r="H28" s="7"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="4:8" ht="30" customHeight="1">
-      <c r="D29" s="13"/>
-      <c r="H29" s="7"/>
+      <c r="D29" s="12"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="4:8" ht="30" customHeight="1">
-      <c r="H30" s="7"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="4:8" ht="30" customHeight="1">
-      <c r="H31" s="7"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="4:8" ht="30" customHeight="1">
-      <c r="D32" s="13"/>
-      <c r="H32" s="7"/>
+      <c r="D32" s="12"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="8:8" ht="30" customHeight="1">
-      <c r="H33" s="7"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="8:8" ht="30" customHeight="1">
-      <c r="H34" s="7"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="8:8" ht="30" customHeight="1">
-      <c r="H35" s="7"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="8:8" ht="30" customHeight="1">
-      <c r="H36" s="7"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="8:8" ht="30" customHeight="1">
-      <c r="H37" s="7"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="8:8" ht="30" customHeight="1">
-      <c r="H38" s="7"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="8:8" ht="30" customHeight="1">
-      <c r="H39" s="7"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="8:8" ht="30" customHeight="1">
-      <c r="H40" s="7"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="8:8" ht="30" customHeight="1">
-      <c r="H41" s="7"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="8:8" ht="30" customHeight="1">
-      <c r="H42" s="7"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="8:8" ht="30" customHeight="1">
-      <c r="H43" s="7"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="8:8" ht="30" customHeight="1">
-      <c r="H44" s="7"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="8:8" ht="30" customHeight="1">
-      <c r="H45" s="7"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="8:8" ht="30" customHeight="1">
-      <c r="H46" s="7"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="8:8" ht="30" customHeight="1">
-      <c r="H47" s="7"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="8:8" ht="30" customHeight="1">
-      <c r="H48" s="7"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="8:8" ht="30" customHeight="1">
-      <c r="H49" s="7"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="8:8" ht="30" customHeight="1">
-      <c r="H50" s="7"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="8:8" ht="30" customHeight="1">
-      <c r="H51" s="7"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="8:8" ht="30" customHeight="1">
-      <c r="H52" s="7"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="8:8" ht="30" customHeight="1">
-      <c r="H53" s="7"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="8:8" ht="30" customHeight="1">
-      <c r="H54" s="5"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="8:8" ht="30" customHeight="1">
-      <c r="H55" s="5"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="8:8" ht="30" customHeight="1">
-      <c r="H56" s="5"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="8:8" ht="30" customHeight="1">
-      <c r="H57" s="5"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="8:8" ht="30" customHeight="1">
-      <c r="H58" s="5"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="8:8" ht="30" customHeight="1">
-      <c r="H59" s="9"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="8:8">
-      <c r="H60" s="8"/>
+      <c r="H60" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2670,7 +2559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE7EA67-9844-4B3E-A2CE-A2FF2E443BC2}">
   <dimension ref="C3:E14"/>
   <sheetViews>
@@ -2683,45 +2572,45 @@
     <col min="5" max="5" width="62.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" s="15" customFormat="1" ht="32.4" customHeight="1">
-      <c r="C3" s="15" t="s">
+    <row r="3" spans="3:5" s="14" customFormat="1" ht="32.4" customHeight="1">
+      <c r="C3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="15" t="s">
+    </row>
+    <row r="4" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1">
+      <c r="C4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C4" s="10" t="s">
+    <row r="5" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1">
+      <c r="C5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1">
+      <c r="C6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1">
-      <c r="C6" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="8" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="9" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="10" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="11" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="12" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="13" spans="3:5" s="10" customFormat="1" ht="19.95" customHeight="1"/>
+    </row>
+    <row r="7" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="8" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="9" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="10" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="11" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="12" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="13" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1"/>
     <row r="14" spans="3:5" ht="19.95" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2729,7 +2618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:I53"/>
   <sheetViews>
@@ -2739,107 +2628,107 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="10"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="9"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="69.109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="30" customHeight="1">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="30" customHeight="1">
+      <c r="D4" s="9">
+        <v>28982</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="30" customHeight="1">
+      <c r="D5" s="9">
+        <v>7285</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="30" customHeight="1">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" ht="30" customHeight="1">
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="30" customHeight="1">
+      <c r="D8" s="9">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1">
-      <c r="D4" s="10">
-        <v>28982</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1">
-      <c r="D5" s="10">
-        <v>7285</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1">
-      <c r="C6" s="10"/>
-      <c r="D6" s="11">
-        <v>20</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1">
-      <c r="D7" s="10">
-        <v>5</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="30" customHeight="1">
-      <c r="D8" s="10">
-        <v>7</v>
-      </c>
-      <c r="H8" s="20" t="s">
+    <row r="9" spans="2:9" ht="30" customHeight="1">
+      <c r="D9" s="9">
+        <v>15</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1">
-      <c r="D9" s="10">
-        <v>15</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
     <row r="10" spans="2:9" ht="30" customHeight="1">
-      <c r="H10" s="19"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1">
-      <c r="H11" s="19"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1">
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="30" customHeight="1">
+      <c r="H13" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="30" customHeight="1">
-      <c r="H13" s="19" t="s">
+    <row r="14" spans="2:9" ht="30" customHeight="1">
+      <c r="H14" s="18" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="30" customHeight="1">
-      <c r="H14" s="19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="30" customHeight="1"/>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AE59A4-B462-4A6B-8B51-74F373BC7859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F91E84-511C-4FE7-8319-2733FEB404AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
   <si>
     <t>Paper id</t>
   </si>
@@ -860,6 +860,9 @@
   journal={arXiv preprint arXiv:1904.09146},
   year={2019}
 }</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1262,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2145,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2E41D-5379-4432-B8CD-0646353AC1C2}">
-  <dimension ref="A3:I60"/>
+  <dimension ref="A3:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2166,7 +2169,7 @@
   <sheetData>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -2194,231 +2197,269 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
       <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D4" s="10">
+        <v>104</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C5" s="9">
         <v>2019</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D5" s="10">
         <v>308</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="E5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="B5" s="9" t="s">
+    <row r="6" spans="1:9" ht="30" customHeight="1">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C6" s="9">
         <v>2006</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="10">
         <v>286</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="E6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1">
-      <c r="B6" s="9" t="s">
+    <row r="7" spans="1:9" ht="30" customHeight="1">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2002</v>
-      </c>
-      <c r="D6" s="10">
-        <v>142</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1">
-      <c r="B7" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="C7" s="9">
         <v>2002</v>
       </c>
       <c r="D7" s="10">
+        <v>142</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D8" s="10">
         <v>341</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="E8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1">
-      <c r="B8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2016</v>
-      </c>
-      <c r="D8" s="10">
+    <row r="9" spans="1:9" ht="30" customHeight="1">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5224</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1">
-      <c r="B9" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1993</v>
-      </c>
-      <c r="D9" s="10">
-        <v>4528</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1">
       <c r="B10" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C10" s="9">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="D10" s="10">
-        <v>169</v>
+        <v>1945</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="9">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
       <c r="B11" s="9" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="C11" s="9">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="D11" s="10">
-        <v>104</v>
+        <v>7971</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
       <c r="B12" s="9" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="D12" s="10">
-        <v>5224</v>
+        <v>1061</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
       <c r="B13" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C13" s="9">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="D13" s="10">
-        <v>1945</v>
+        <v>4528</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>110</v>
+        <v>72</v>
+      </c>
+      <c r="I13" s="9">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
       <c r="B14" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C14" s="9">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="D14" s="10">
-        <v>7971</v>
+        <v>7</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
       <c r="B15" s="9" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C15" s="9">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D15" s="10">
-        <v>1061</v>
+        <v>169</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1"/>
+        <v>75</v>
+      </c>
+      <c r="I15" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1">
+      <c r="H16" s="6"/>
+    </row>
     <row r="17" spans="4:8" ht="30" customHeight="1">
       <c r="H17" s="6"/>
     </row>
@@ -2453,20 +2494,20 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="4:8" ht="30" customHeight="1">
+      <c r="D28" s="12"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="4:8" ht="30" customHeight="1">
-      <c r="D29" s="12"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="4:8" ht="30" customHeight="1">
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="4:8" ht="30" customHeight="1">
+      <c r="D31" s="12"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="4:8" ht="30" customHeight="1">
-      <c r="D32" s="12"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="8:8" ht="30" customHeight="1">
@@ -2530,7 +2571,7 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="8:8" ht="30" customHeight="1">
-      <c r="H53" s="6"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="8:8" ht="30" customHeight="1">
       <c r="H54" s="4"/>
@@ -2545,13 +2586,10 @@
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="8:8" ht="30" customHeight="1">
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="8:8" ht="30" customHeight="1">
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="8:8">
-      <c r="H60" s="7"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="H59" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F91E84-511C-4FE7-8319-2733FEB404AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2624CBA1-7494-4594-A434-3A287639CC1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1266,7 +1266,7 @@
   <dimension ref="A3:I55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2148,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2E41D-5379-4432-B8CD-0646353AC1C2}">
-  <dimension ref="A3:I59"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2167,156 +2167,202 @@
     <col min="9" max="9" width="16.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D2" s="10">
+        <v>104</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>138</v>
+      <c r="A3" s="9">
+        <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>119</v>
+        <v>85</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="10">
+        <v>308</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>108</v>
+        <v>121</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1">
       <c r="A4" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C4" s="9">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="D4" s="10">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
       <c r="A5" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C5" s="9">
-        <v>2019</v>
+        <v>2002</v>
       </c>
       <c r="D5" s="10">
-        <v>308</v>
+        <v>142</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="A6" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="9">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="D6" s="10">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
       <c r="A7" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="9">
         <v>2002</v>
       </c>
       <c r="D7" s="10">
-        <v>142</v>
+        <v>5224</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
       <c r="A8" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="9">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="D8" s="10">
-        <v>341</v>
+        <v>1945</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
       <c r="A9" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C9" s="9">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D9" s="10">
-        <v>5224</v>
+        <v>7971</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>110</v>
@@ -2324,22 +2370,22 @@
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
       <c r="A10" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="C10" s="9">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="D10" s="10">
-        <v>1945</v>
+        <v>1061</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>110</v>
@@ -2347,115 +2393,75 @@
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="A11" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="9">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="D11" s="10">
-        <v>7971</v>
+        <v>4528</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>110</v>
+        <v>72</v>
+      </c>
+      <c r="I11" s="9">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
       <c r="A12" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C12" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D12" s="10">
-        <v>1061</v>
+        <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="A13" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C13" s="9">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="D13" s="10">
-        <v>4528</v>
+        <v>169</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I13" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2016</v>
-      </c>
-      <c r="D14" s="10">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2010</v>
-      </c>
-      <c r="D15" s="10">
-        <v>169</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="9">
-        <v>15</v>
-      </c>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="H16" s="6"/>
@@ -2488,23 +2494,23 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="4:8" ht="30" customHeight="1">
+      <c r="D26" s="12"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="4:8" ht="30" customHeight="1">
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="4:8" ht="30" customHeight="1">
-      <c r="D28" s="12"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="4:8" ht="30" customHeight="1">
+      <c r="D29" s="12"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="4:8" ht="30" customHeight="1">
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="4:8" ht="30" customHeight="1">
-      <c r="D31" s="12"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="4:8" ht="30" customHeight="1">
@@ -2565,10 +2571,10 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="8:8" ht="30" customHeight="1">
-      <c r="H51" s="6"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="8:8" ht="30" customHeight="1">
-      <c r="H52" s="6"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="8:8" ht="30" customHeight="1">
       <c r="H53" s="4"/>
@@ -2580,16 +2586,10 @@
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="8:8" ht="30" customHeight="1">
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="8:8" ht="30" customHeight="1">
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="8:8" ht="30" customHeight="1">
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="8:8">
-      <c r="H59" s="7"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="H57" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2624CBA1-7494-4594-A434-3A287639CC1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07F376E-0C76-4266-84D3-573DDF344E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="139">
   <si>
     <t>Paper id</t>
   </si>
@@ -1265,9 +1265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1376,8 +1376,8 @@
       <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>110</v>
+      <c r="I7" s="9">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
@@ -2150,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2E41D-5379-4432-B8CD-0646353AC1C2}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07F376E-0C76-4266-84D3-573DDF344E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07194F9-0DE7-4FD1-AF01-40DC28F7F1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="3" r:id="rId1"/>
@@ -1265,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
@@ -2150,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2E41D-5379-4432-B8CD-0646353AC1C2}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2215,8 +2215,8 @@
       <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>110</v>
+      <c r="I2" s="9">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
@@ -2238,6 +2238,9 @@
       <c r="H3" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="I3" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1">
       <c r="A4" s="9">
@@ -2258,6 +2261,9 @@
       <c r="H4" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="I4" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
       <c r="A5" s="9">
@@ -2277,6 +2283,9 @@
       </c>
       <c r="H5" s="6" t="s">
         <v>63</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07194F9-0DE7-4FD1-AF01-40DC28F7F1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFA1DAB-50C9-4BEA-A96A-57BD42A78EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="139">
   <si>
     <t>Paper id</t>
   </si>
@@ -2148,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2E41D-5379-4432-B8CD-0646353AC1C2}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2382,22 +2382,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C10" s="9">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="D10" s="10">
-        <v>1061</v>
+        <v>4528</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>110</v>
+        <v>72</v>
+      </c>
+      <c r="I10" s="9">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
@@ -2405,22 +2405,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="9">
-        <v>1993</v>
+        <v>2016</v>
       </c>
       <c r="D11" s="10">
-        <v>4528</v>
+        <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="9">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
@@ -2428,43 +2425,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12" s="9">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="D12" s="10">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="I12" s="9">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2010</v>
-      </c>
-      <c r="D13" s="10">
-        <v>169</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="9">
-        <v>15</v>
-      </c>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
       <c r="H14" s="6"/>
@@ -2500,20 +2480,20 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="4:8" ht="30" customHeight="1">
+      <c r="D25" s="12"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="4:8" ht="30" customHeight="1">
-      <c r="D26" s="12"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="4:8" ht="30" customHeight="1">
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="4:8" ht="30" customHeight="1">
+      <c r="D28" s="12"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="4:8" ht="30" customHeight="1">
-      <c r="D29" s="12"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="4:8" ht="30" customHeight="1">
@@ -2577,7 +2557,7 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="8:8" ht="30" customHeight="1">
-      <c r="H50" s="6"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="8:8" ht="30" customHeight="1">
       <c r="H51" s="4"/>
@@ -2592,13 +2572,10 @@
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="8:8" ht="30" customHeight="1">
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="8:8" ht="30" customHeight="1">
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="8:8">
-      <c r="H57" s="7"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="H56" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFA1DAB-50C9-4BEA-A96A-57BD42A78EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C4B78C-DF76-4A7D-AAAC-9797F68AC1DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ObjDetection.xlsx
+++ b/ObjDetection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C4B78C-DF76-4A7D-AAAC-9797F68AC1DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69EA222-E481-49AA-AC49-34ACE4CC4472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="138">
   <si>
     <t>Paper id</t>
   </si>
@@ -742,12 +742,6 @@
 }</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>3*</t>
-  </si>
-  <si>
     <t>@article{zhao2019object,
   title={Object detection with deep learning: A review},
   author={Zhao, Zhong-Qiu and Zheng, Peng and Xu, Shou-tao and Wu, Xindong},
@@ -821,15 +815,6 @@
   </si>
   <si>
     <t>book03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  year={2017},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  organization={IEEE}</t>
-  </si>
-  <si>
-    <t>}</t>
   </si>
   <si>
     <t>@inproceedings{tian2017video,
@@ -863,6 +848,18 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -1263,11 +1260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:I55"/>
+  <dimension ref="A3:I110"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1285,28 +1282,28 @@
   <sheetData>
     <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>108</v>
@@ -1314,234 +1311,300 @@
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="C4" s="9">
+        <v>2014</v>
+      </c>
       <c r="D4" s="10">
         <v>407</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="9">
-        <v>1</v>
+      <c r="I4" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="9">
+        <v>2015</v>
+      </c>
       <c r="D5" s="10">
         <v>829</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>55</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="B6" s="9" t="s">
         <v>84</v>
       </c>
+      <c r="C6" s="9">
+        <v>1998</v>
+      </c>
       <c r="D6" s="10">
         <v>2951</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="9">
+        <v>2015</v>
+      </c>
       <c r="D7" s="10">
         <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="9">
-        <v>22</v>
+      <c r="I7" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
       <c r="B8" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="C8" s="9">
+        <v>2019</v>
+      </c>
       <c r="D8" s="10">
         <v>308</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="9">
-        <v>5</v>
+        <v>110</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="C9" s="9">
+        <v>2015</v>
+      </c>
       <c r="D9" s="10">
         <v>490</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="9">
-        <v>2</v>
+      <c r="I9" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="C10" s="9">
+        <v>2000</v>
+      </c>
       <c r="D10" s="10">
         <v>353</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>59</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="C11" s="9">
+        <v>2015</v>
+      </c>
       <c r="D11" s="10">
         <v>11186</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="9">
-        <v>6</v>
+      <c r="I11" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
       <c r="B12" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="C12" s="9">
+        <v>2010</v>
+      </c>
       <c r="D12" s="10">
         <v>830</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="C13" s="9">
+        <v>2015</v>
+      </c>
       <c r="D13" s="10">
         <v>908</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
       <c r="B14" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="C14" s="9">
+        <v>2006</v>
+      </c>
       <c r="D14" s="10">
         <v>286</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="9">
-        <v>7</v>
+      <c r="I14" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="C15" s="9">
+        <v>2017</v>
+      </c>
       <c r="D15" s="10">
         <v>161</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="I15" s="9" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="C16" s="9">
+        <v>2002</v>
+      </c>
       <c r="D16" s="10">
         <v>142</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>63</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="C17" s="9">
+        <v>2016</v>
+      </c>
       <c r="D17" s="10">
         <v>414</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>7</v>
@@ -1549,36 +1612,45 @@
       <c r="H17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="9">
-        <v>4</v>
+      <c r="I17" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>90</v>
       </c>
+      <c r="C18" s="9">
+        <v>2002</v>
+      </c>
       <c r="D18" s="10">
         <v>341</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="9">
-        <v>21</v>
+      <c r="I18" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="C19" s="9">
+        <v>2015</v>
+      </c>
       <c r="D19" s="10">
         <v>312</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>7</v>
@@ -1587,559 +1659,867 @@
         <v>24</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="C20" s="9">
+        <v>2002</v>
+      </c>
       <c r="D20" s="10">
         <v>5224</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>65</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1">
       <c r="B21" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="C21" s="9">
+        <v>2017</v>
+      </c>
       <c r="D21" s="10">
         <v>1793</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1">
       <c r="B22" s="9" t="s">
         <v>92</v>
       </c>
+      <c r="C22" s="9">
+        <v>2005</v>
+      </c>
       <c r="D22" s="10">
         <v>1945</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>66</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1">
       <c r="B23" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="C23" s="9">
+        <v>2015</v>
+      </c>
       <c r="D23" s="10">
         <v>403</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1">
       <c r="B24" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="C24" s="9">
+        <v>1998</v>
+      </c>
       <c r="D24" s="12">
         <v>1791</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="9">
-        <v>8</v>
+      <c r="I24" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1">
       <c r="B25" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="C25" s="9">
+        <v>2015</v>
+      </c>
       <c r="D25" s="10">
         <v>217</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1">
       <c r="B26" s="9" t="s">
         <v>94</v>
       </c>
+      <c r="C26" s="9">
+        <v>2001</v>
+      </c>
       <c r="D26" s="10">
         <v>1297</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>68</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1">
       <c r="B27" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="C27" s="9">
+        <v>2015</v>
+      </c>
       <c r="D27" s="12">
         <v>11885</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="9">
-        <v>9</v>
+      <c r="I27" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1">
       <c r="B28" s="9" t="s">
         <v>95</v>
       </c>
+      <c r="C28" s="9">
+        <v>2000</v>
+      </c>
       <c r="D28" s="9">
         <v>1585</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="I28" s="9" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1">
       <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="C29" s="9">
+        <v>2016</v>
+      </c>
       <c r="D29" s="10">
         <v>5438</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="9">
-        <v>11</v>
+      <c r="I29" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1">
       <c r="B30" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="C30" s="9">
+        <v>2009</v>
+      </c>
       <c r="D30" s="10">
         <v>333</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="9">
-        <v>12</v>
+      <c r="I30" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1">
       <c r="B31" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="C31" s="9">
+        <v>2016</v>
+      </c>
       <c r="D31" s="10">
         <v>1650</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="9">
-        <v>10</v>
+      <c r="I31" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1">
       <c r="B32" s="9" t="s">
         <v>97</v>
       </c>
+      <c r="C32" s="9">
+        <v>2003</v>
+      </c>
       <c r="D32" s="10">
         <v>7971</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>71</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="30" customHeight="1">
       <c r="B33" s="9" t="s">
         <v>31</v>
       </c>
+      <c r="C33" s="9">
+        <v>2015</v>
+      </c>
       <c r="D33" s="10">
         <v>1061</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="30" customHeight="1">
       <c r="B34" s="9" t="s">
         <v>98</v>
       </c>
+      <c r="C34" s="9">
+        <v>1993</v>
+      </c>
       <c r="D34" s="10">
         <v>4528</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="9">
-        <v>13</v>
+      <c r="I34" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="30" customHeight="1">
       <c r="B35" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="C35" s="9">
+        <v>2016</v>
+      </c>
       <c r="D35" s="10">
         <v>583</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="9">
-        <v>16</v>
+      <c r="I35" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="30" customHeight="1">
       <c r="B36" s="9" t="s">
         <v>99</v>
       </c>
+      <c r="C36" s="9">
+        <v>2016</v>
+      </c>
       <c r="D36" s="10">
         <v>7</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>73</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="30" customHeight="1">
       <c r="B37" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="C37" s="9">
+        <v>2016</v>
+      </c>
       <c r="D37" s="10">
         <v>351</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>109</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="30" customHeight="1">
       <c r="B38" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="C38" s="9">
+        <v>2000</v>
+      </c>
       <c r="D38" s="10">
         <v>16170</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>74</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="30" customHeight="1">
       <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="C39" s="9">
+        <v>2016</v>
+      </c>
       <c r="D39" s="10">
         <v>43</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="9">
-        <v>14</v>
+      <c r="I39" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="30" customHeight="1">
       <c r="B40" s="9" t="s">
         <v>101</v>
       </c>
+      <c r="C40" s="9">
+        <v>2010</v>
+      </c>
       <c r="D40" s="10">
         <v>169</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I40" s="9">
-        <v>15</v>
+      <c r="I40" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="30" customHeight="1">
       <c r="B41" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="C41" s="9">
+        <v>2016</v>
+      </c>
       <c r="D41" s="10">
         <v>347</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>49</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
       <c r="B42" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="C42" s="9">
+        <v>2004</v>
+      </c>
       <c r="D42" s="10">
         <v>52725</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>76</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="30" customHeight="1">
       <c r="B43" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="C43" s="9">
+        <v>2016</v>
+      </c>
       <c r="D43" s="10">
         <v>306</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>50</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="30" customHeight="1">
       <c r="B44" s="9" t="s">
         <v>103</v>
       </c>
+      <c r="C44" s="9">
+        <v>2009</v>
+      </c>
       <c r="D44" s="10">
         <v>361</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I44" s="9">
-        <v>17</v>
+      <c r="I44" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="30" customHeight="1">
       <c r="B45" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="C45" s="9">
+        <v>2016</v>
+      </c>
       <c r="D45" s="10">
         <v>28873</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>51</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="30" customHeight="1">
       <c r="B46" s="9" t="s">
         <v>104</v>
       </c>
+      <c r="C46" s="9">
+        <v>2010</v>
+      </c>
       <c r="D46" s="10">
         <v>318</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>79</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="30" customHeight="1">
       <c r="B47" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="C47" s="9">
+        <v>2016</v>
+      </c>
       <c r="D47" s="10">
         <v>168</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I47" s="9">
-        <v>18</v>
+      <c r="I47" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="30" customHeight="1">
       <c r="B48" s="9" t="s">
         <v>105</v>
       </c>
+      <c r="C48" s="9">
+        <v>1997</v>
+      </c>
       <c r="D48" s="10">
         <v>4798</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>80</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="30" customHeight="1">
       <c r="B49" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="C49" s="9">
+        <v>2015</v>
+      </c>
       <c r="D49" s="10">
         <v>378</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="9">
-        <v>20</v>
+      <c r="I49" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="30" customHeight="1">
       <c r="B50" s="9" t="s">
         <v>106</v>
       </c>
+      <c r="C50" s="9">
+        <v>1999</v>
+      </c>
       <c r="D50" s="10">
         <v>856</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>81</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="30" customHeight="1">
       <c r="B51" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C51" s="9">
+        <v>2001</v>
+      </c>
       <c r="D51" s="10">
         <v>4028</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="30" customHeight="1">
       <c r="B52" s="9" t="s">
         <v>107</v>
       </c>
+      <c r="C52" s="9">
+        <v>2004</v>
+      </c>
       <c r="D52" s="10">
         <v>14004</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="30" customHeight="1">
       <c r="B53" s="9" t="s">
         <v>46</v>
       </c>
+      <c r="C53" s="9">
+        <v>2007</v>
+      </c>
       <c r="D53" s="10">
         <v>176</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I53" s="9">
-        <v>19</v>
+      <c r="I53" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="30" customHeight="1">
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="2:9">
-      <c r="H55" s="7"/>
-    </row>
+    <row r="55" spans="2:9" ht="30" customHeight="1">
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="2:9" ht="30" customHeight="1">
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="2:9" ht="30" customHeight="1">
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="2:9" ht="30" customHeight="1">
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:9" ht="30" customHeight="1">
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:9" ht="30" customHeight="1">
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="2:9" ht="30" customHeight="1">
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="2:9" ht="30" customHeight="1">
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:9" ht="30" customHeight="1">
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="2:9" ht="30" customHeight="1">
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="4:8" ht="30" customHeight="1">
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="4:8" ht="30" customHeight="1">
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="4:8" ht="30" customHeight="1">
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="4:8" ht="30" customHeight="1">
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="4:8" ht="30" customHeight="1">
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="4:8" ht="30" customHeight="1">
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="4:8" ht="30" customHeight="1">
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="4:8" ht="30" customHeight="1">
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="4:8" ht="30" customHeight="1">
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="4:8" ht="30" customHeight="1">
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="4:8" ht="30" customHeight="1">
+      <c r="D75" s="12"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="4:8" ht="30" customHeight="1">
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="4:8" ht="30" customHeight="1">
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="4:8" ht="30" customHeight="1">
+      <c r="D78" s="12"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="4:8" ht="30" customHeight="1">
+      <c r="D79" s="9"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="4:8" ht="30" customHeight="1">
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="8:8" ht="30" customHeight="1">
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="8:8" ht="30" customHeight="1">
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="8:8" ht="30" customHeight="1">
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="8:8" ht="30" customHeight="1">
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="8:8" ht="30" customHeight="1">
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="8:8" ht="30" customHeight="1">
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="8:8" ht="30" customHeight="1">
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="8:8" ht="30" customHeight="1">
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="8:8" ht="30" customHeight="1">
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="8:8" ht="30" customHeight="1">
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="8:8" ht="30" customHeight="1">
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="8:8" ht="30" customHeight="1">
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="8:8" ht="30" customHeight="1">
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="8:8" ht="30" customHeight="1">
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="8:8" ht="30" customHeight="1">
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="8:8" ht="30" customHeight="1">
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="8:8" ht="30" customHeight="1">
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="8:8" ht="30" customHeight="1">
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="8:8" ht="30" customHeight="1">
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="8:8" ht="30" customHeight="1">
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="8:8" ht="30" customHeight="1">
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="8:8" ht="30" customHeight="1">
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="8:8" ht="30" customHeight="1">
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="8:8" ht="30" customHeight="1">
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="8:8" ht="30" customHeight="1"/>
+    <row r="106" spans="8:8" ht="30" customHeight="1"/>
+    <row r="107" spans="8:8" ht="30" customHeight="1"/>
+    <row r="108" spans="8:8" ht="30" customHeight="1"/>
+    <row r="109" spans="8:8" ht="30" customHeight="1"/>
+    <row r="110" spans="8:8" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2150,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB2E41D-5379-4432-B8CD-0646353AC1C2}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2169,28 +2549,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="G1" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>108</v>
@@ -2210,13 +2590,13 @@
         <v>104</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="9">
-        <v>22</v>
+      <c r="I2" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1">
@@ -2233,13 +2613,13 @@
         <v>308</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="9">
-        <v>5</v>
+        <v>110</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1">
@@ -2256,13 +2636,13 @@
         <v>286</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="9">
-        <v>7</v>
+      <c r="I4" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
@@ -2279,13 +2659,13 @@
         <v>142</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>63</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
@@ -2302,10 +2682,13 @@
         <v>341</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
@@ -2322,13 +2705,13 @@
         <v>5224</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>65</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
@@ -2345,13 +2728,13 @@
         <v>1945</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>66</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
@@ -2368,13 +2751,13 @@
         <v>7971</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
@@ -2391,13 +2774,13 @@
         <v>4528</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="9">
-        <v>13</v>
+      <c r="I10" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
@@ -2414,10 +2797,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>73</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
@@ -2434,13 +2820,13 @@
         <v>169</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="9">
-        <v>15</v>
+      <c r="I12" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
@@ -2598,34 +2984,34 @@
   <sheetData>
     <row r="3" spans="3:5" s="14" customFormat="1" ht="32.4" customHeight="1">
       <c r="C3" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1">
       <c r="C4" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1">
       <c r="C5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1">
       <c r="C6" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="3:5" s="9" customFormat="1" ht="19.95" customHeight="1"/>
@@ -2646,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2715,7 +3101,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="30" customHeight="1">
@@ -2723,7 +3109,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1">
@@ -2731,7 +3117,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="30" customHeight="1">
@@ -2741,19 +3127,13 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1">
-      <c r="H12" s="18" t="s">
-        <v>132</v>
-      </c>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1">
-      <c r="H13" s="18" t="s">
-        <v>133</v>
-      </c>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="2:9" ht="30" customHeight="1">
-      <c r="H14" s="18" t="s">
-        <v>134</v>
-      </c>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="2:9" ht="30" customHeight="1"/>
     <row r="16" spans="2:9" ht="30" customHeight="1"/>
